--- a/assert/homeelife_translation.xlsx
+++ b/assert/homeelife_translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maginawin/Developer/Nodejs/AppStrings_Node/assert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA0CC0C-DD94-1E44-AC64-832F110201BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E376721-84D9-2048-8A5E-FCCC332B64E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{1EF1F38C-B871-9342-96A1-E4D1D218FBB5}"/>
   </bookViews>
@@ -4807,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1590901A-B822-9F4F-8154-DBF2DD2F5A74}">
   <dimension ref="A2:B1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A692" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B701" sqref="B701"/>
+    <sheetView tabSelected="1" topLeftCell="A962" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A978" sqref="A978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/assert/homeelife_translation.xlsx
+++ b/assert/homeelife_translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maginawin/Developer/Nodejs/AppStrings_Node/assert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E376721-84D9-2048-8A5E-FCCC332B64E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472036D-F396-A341-BA31-5581009D128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{1EF1F38C-B871-9342-96A1-E4D1D218FBB5}"/>
   </bookViews>
@@ -1090,9 +1090,6 @@
     <t>Executed!</t>
   </si>
   <si>
-    <t>Login has expired, please login again.</t>
-  </si>
-  <si>
     <t>Back again to exit the App.</t>
   </si>
   <si>
@@ -4424,6 +4421,10 @@
   </si>
   <si>
     <t>不能设置成旧密码。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login has expired, please login again.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4807,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1590901A-B822-9F4F-8154-DBF2DD2F5A74}">
   <dimension ref="A2:B1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A962" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A978" sqref="A978"/>
+    <sheetView tabSelected="1" topLeftCell="A694" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E708" sqref="E708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4821,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -4829,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -4837,7 +4838,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -4845,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -4853,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -4861,7 +4862,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -4869,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -4877,7 +4878,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -4885,7 +4886,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -4893,7 +4894,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
@@ -4901,7 +4902,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
@@ -4909,7 +4910,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
@@ -4917,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
@@ -4925,7 +4926,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
@@ -4933,7 +4934,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
@@ -4941,7 +4942,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
@@ -4949,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
@@ -4957,7 +4958,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17">
@@ -4965,7 +4966,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17">
@@ -4973,7 +4974,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17">
@@ -4981,7 +4982,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17">
@@ -4989,7 +4990,7 @@
         <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17">
@@ -4997,7 +4998,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17">
@@ -5005,7 +5006,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17">
@@ -5013,7 +5014,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17">
@@ -5021,7 +5022,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17">
@@ -5029,7 +5030,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17">
@@ -5037,15 +5038,15 @@
         <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17">
       <c r="A58" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17">
@@ -5053,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17">
@@ -5061,7 +5062,7 @@
         <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17">
@@ -5069,7 +5070,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17">
@@ -5077,7 +5078,7 @@
         <v>31</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17">
@@ -5085,7 +5086,7 @@
         <v>32</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17">
@@ -5093,7 +5094,7 @@
         <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17">
@@ -5101,7 +5102,7 @@
         <v>34</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17">
@@ -5109,7 +5110,7 @@
         <v>35</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17">
@@ -5117,7 +5118,7 @@
         <v>36</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17">
@@ -5125,7 +5126,7 @@
         <v>37</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17">
@@ -5133,7 +5134,7 @@
         <v>38</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17">
@@ -5141,7 +5142,7 @@
         <v>39</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17">
@@ -5149,7 +5150,7 @@
         <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17">
@@ -5157,7 +5158,7 @@
         <v>41</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17">
@@ -5165,7 +5166,7 @@
         <v>42</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17">
@@ -5173,7 +5174,7 @@
         <v>43</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17">
@@ -5181,7 +5182,7 @@
         <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17">
@@ -5189,7 +5190,7 @@
         <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17">
@@ -5197,7 +5198,7 @@
         <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17">
@@ -5205,7 +5206,7 @@
         <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17">
@@ -5213,7 +5214,7 @@
         <v>48</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17">
@@ -5221,7 +5222,7 @@
         <v>49</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17">
@@ -5229,7 +5230,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17">
@@ -5237,7 +5238,7 @@
         <v>51</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17">
@@ -5245,7 +5246,7 @@
         <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17">
@@ -5253,7 +5254,7 @@
         <v>53</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17">
@@ -5261,7 +5262,7 @@
         <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17">
@@ -5269,7 +5270,7 @@
         <v>55</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17">
@@ -5277,7 +5278,7 @@
         <v>56</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17">
@@ -5285,7 +5286,7 @@
         <v>57</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17">
@@ -5293,7 +5294,7 @@
         <v>58</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17">
@@ -5301,7 +5302,7 @@
         <v>59</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17">
@@ -5309,7 +5310,7 @@
         <v>60</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="17">
@@ -5317,7 +5318,7 @@
         <v>61</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17">
@@ -5325,7 +5326,7 @@
         <v>62</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17">
@@ -5333,7 +5334,7 @@
         <v>63</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17">
@@ -5341,7 +5342,7 @@
         <v>64</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17">
@@ -5349,7 +5350,7 @@
         <v>65</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17">
@@ -5357,7 +5358,7 @@
         <v>66</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17">
@@ -5365,7 +5366,7 @@
         <v>67</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17">
@@ -5373,7 +5374,7 @@
         <v>68</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17">
@@ -5381,7 +5382,7 @@
         <v>69</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17">
@@ -5389,7 +5390,7 @@
         <v>70</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17">
@@ -5397,7 +5398,7 @@
         <v>71</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17">
@@ -5405,7 +5406,7 @@
         <v>72</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17">
@@ -5413,7 +5414,7 @@
         <v>73</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17">
@@ -5421,7 +5422,7 @@
         <v>74</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17">
@@ -5429,7 +5430,7 @@
         <v>75</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17">
@@ -5437,7 +5438,7 @@
         <v>76</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17">
@@ -5445,7 +5446,7 @@
         <v>77</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17">
@@ -5453,7 +5454,7 @@
         <v>78</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17">
@@ -5461,7 +5462,7 @@
         <v>79</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17">
@@ -5469,7 +5470,7 @@
         <v>80</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17">
@@ -5477,7 +5478,7 @@
         <v>81</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17">
@@ -5485,7 +5486,7 @@
         <v>82</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17">
@@ -5493,7 +5494,7 @@
         <v>83</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17">
@@ -5501,7 +5502,7 @@
         <v>84</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17">
@@ -5509,7 +5510,7 @@
         <v>85</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17">
@@ -5517,7 +5518,7 @@
         <v>86</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="17">
@@ -5525,7 +5526,7 @@
         <v>87</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17">
@@ -5533,7 +5534,7 @@
         <v>88</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17">
@@ -5541,7 +5542,7 @@
         <v>89</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17">
@@ -5549,7 +5550,7 @@
         <v>90</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="17">
@@ -5557,7 +5558,7 @@
         <v>91</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17">
@@ -5565,7 +5566,7 @@
         <v>92</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="17">
@@ -5573,7 +5574,7 @@
         <v>93</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17">
@@ -5581,7 +5582,7 @@
         <v>94</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="17">
@@ -5589,7 +5590,7 @@
         <v>95</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17">
@@ -5597,7 +5598,7 @@
         <v>96</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="17">
@@ -5605,7 +5606,7 @@
         <v>97</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="17">
@@ -5613,7 +5614,7 @@
         <v>98</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="34">
@@ -5621,7 +5622,7 @@
         <v>99</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="17">
@@ -5629,7 +5630,7 @@
         <v>100</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="17">
@@ -5637,7 +5638,7 @@
         <v>101</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="17">
@@ -5645,7 +5646,7 @@
         <v>102</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="17">
@@ -5653,7 +5654,7 @@
         <v>103</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="17">
@@ -5661,7 +5662,7 @@
         <v>104</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="17">
@@ -5669,7 +5670,7 @@
         <v>105</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="17">
@@ -5677,7 +5678,7 @@
         <v>106</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="17">
@@ -5685,7 +5686,7 @@
         <v>107</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="17">
@@ -5693,7 +5694,7 @@
         <v>108</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="17">
@@ -5701,7 +5702,7 @@
         <v>109</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="17">
@@ -5709,7 +5710,7 @@
         <v>110</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="17">
@@ -5717,7 +5718,7 @@
         <v>111</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="17">
@@ -5725,7 +5726,7 @@
         <v>112</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="17">
@@ -5733,7 +5734,7 @@
         <v>113</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="17">
@@ -5741,7 +5742,7 @@
         <v>114</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="17">
@@ -5749,7 +5750,7 @@
         <v>115</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="17">
@@ -5757,7 +5758,7 @@
         <v>116</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="17">
@@ -5765,7 +5766,7 @@
         <v>117</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="17">
@@ -5773,7 +5774,7 @@
         <v>118</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="17">
@@ -5781,7 +5782,7 @@
         <v>119</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="17">
@@ -5789,7 +5790,7 @@
         <v>120</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17">
@@ -5797,7 +5798,7 @@
         <v>121</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="17">
@@ -5805,7 +5806,7 @@
         <v>122</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="17">
@@ -5813,7 +5814,7 @@
         <v>123</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="17">
@@ -5821,7 +5822,7 @@
         <v>124</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="17">
@@ -5829,7 +5830,7 @@
         <v>125</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="17">
@@ -5837,7 +5838,7 @@
         <v>126</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="17">
@@ -5845,7 +5846,7 @@
         <v>127</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="17">
@@ -5853,7 +5854,7 @@
         <v>128</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="17">
@@ -5861,7 +5862,7 @@
         <v>129</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="51">
@@ -5869,7 +5870,7 @@
         <v>130</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="17">
@@ -5877,7 +5878,7 @@
         <v>131</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="34">
@@ -5885,7 +5886,7 @@
         <v>132</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="34">
@@ -5893,7 +5894,7 @@
         <v>133</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="17">
@@ -5901,7 +5902,7 @@
         <v>134</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="17">
@@ -5909,7 +5910,7 @@
         <v>135</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="17">
@@ -5917,7 +5918,7 @@
         <v>136</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="17">
@@ -5925,7 +5926,7 @@
         <v>137</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="17">
@@ -5933,7 +5934,7 @@
         <v>138</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="17">
@@ -5941,7 +5942,7 @@
         <v>139</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="34">
@@ -5949,7 +5950,7 @@
         <v>140</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="17">
@@ -5957,7 +5958,7 @@
         <v>141</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="17">
@@ -5965,7 +5966,7 @@
         <v>142</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="17">
@@ -5973,7 +5974,7 @@
         <v>143</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="17">
@@ -5981,7 +5982,7 @@
         <v>144</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="17">
@@ -5989,7 +5990,7 @@
         <v>145</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="17">
@@ -5997,7 +5998,7 @@
         <v>146</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="17">
@@ -6005,7 +6006,7 @@
         <v>147</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="17">
@@ -6013,7 +6014,7 @@
         <v>148</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="17">
@@ -6021,7 +6022,7 @@
         <v>149</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="17">
@@ -6029,7 +6030,7 @@
         <v>150</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="17">
@@ -6037,7 +6038,7 @@
         <v>151</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="17">
@@ -6045,7 +6046,7 @@
         <v>152</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="17">
@@ -6053,7 +6054,7 @@
         <v>153</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="17">
@@ -6061,7 +6062,7 @@
         <v>154</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="17">
@@ -6069,7 +6070,7 @@
         <v>155</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="17">
@@ -6077,7 +6078,7 @@
         <v>156</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="17">
@@ -6085,7 +6086,7 @@
         <v>157</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="17">
@@ -6093,7 +6094,7 @@
         <v>158</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="17">
@@ -6101,7 +6102,7 @@
         <v>159</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="17">
@@ -6109,7 +6110,7 @@
         <v>160</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="17">
@@ -6117,7 +6118,7 @@
         <v>161</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="17">
@@ -6125,7 +6126,7 @@
         <v>162</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="17">
@@ -6133,7 +6134,7 @@
         <v>163</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="17">
@@ -6141,7 +6142,7 @@
         <v>164</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="17">
@@ -6149,7 +6150,7 @@
         <v>165</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="17">
@@ -6157,7 +6158,7 @@
         <v>166</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="17">
@@ -6165,7 +6166,7 @@
         <v>167</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="17">
@@ -6173,7 +6174,7 @@
         <v>168</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="17">
@@ -6181,7 +6182,7 @@
         <v>169</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="17">
@@ -6189,7 +6190,7 @@
         <v>170</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="17">
@@ -6197,7 +6198,7 @@
         <v>171</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17">
@@ -6205,7 +6206,7 @@
         <v>172</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="17">
@@ -6213,7 +6214,7 @@
         <v>173</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="17">
@@ -6221,7 +6222,7 @@
         <v>174</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="17">
@@ -6229,7 +6230,7 @@
         <v>175</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="17">
@@ -6237,7 +6238,7 @@
         <v>176</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="17">
@@ -6245,7 +6246,7 @@
         <v>177</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="17">
@@ -6253,7 +6254,7 @@
         <v>178</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="17">
@@ -6261,7 +6262,7 @@
         <v>179</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="17">
@@ -6269,7 +6270,7 @@
         <v>180</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="17">
@@ -6277,7 +6278,7 @@
         <v>181</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="17">
@@ -6285,7 +6286,7 @@
         <v>182</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="17">
@@ -6293,7 +6294,7 @@
         <v>183</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="17">
@@ -6301,7 +6302,7 @@
         <v>184</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="17">
@@ -6309,7 +6310,7 @@
         <v>185</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="17">
@@ -6317,7 +6318,7 @@
         <v>186</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="17">
@@ -6325,7 +6326,7 @@
         <v>187</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="17">
@@ -6333,7 +6334,7 @@
         <v>188</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="17">
@@ -6341,7 +6342,7 @@
         <v>189</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="17">
@@ -6349,7 +6350,7 @@
         <v>190</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="17">
@@ -6357,7 +6358,7 @@
         <v>191</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="17">
@@ -6365,7 +6366,7 @@
         <v>192</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="17">
@@ -6373,7 +6374,7 @@
         <v>193</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="17">
@@ -6381,7 +6382,7 @@
         <v>194</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="17">
@@ -6389,7 +6390,7 @@
         <v>195</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="17">
@@ -6397,7 +6398,7 @@
         <v>196</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="17">
@@ -6405,7 +6406,7 @@
         <v>197</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="17">
@@ -6413,7 +6414,7 @@
         <v>198</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="17">
@@ -6421,7 +6422,7 @@
         <v>199</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="17">
@@ -6429,7 +6430,7 @@
         <v>200</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="17">
@@ -6437,7 +6438,7 @@
         <v>201</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="17">
@@ -6445,7 +6446,7 @@
         <v>202</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="17">
@@ -6453,7 +6454,7 @@
         <v>203</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="17">
@@ -6461,7 +6462,7 @@
         <v>204</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="17">
@@ -6469,7 +6470,7 @@
         <v>205</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="17">
@@ -6477,7 +6478,7 @@
         <v>206</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="34">
@@ -6485,7 +6486,7 @@
         <v>207</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="17">
@@ -6493,7 +6494,7 @@
         <v>208</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="17">
@@ -6501,7 +6502,7 @@
         <v>209</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="17">
@@ -6509,7 +6510,7 @@
         <v>210</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="17">
@@ -6517,7 +6518,7 @@
         <v>211</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="17">
@@ -6525,7 +6526,7 @@
         <v>212</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="17">
@@ -6533,7 +6534,7 @@
         <v>213</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="17">
@@ -6541,7 +6542,7 @@
         <v>214</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="17">
@@ -6549,7 +6550,7 @@
         <v>215</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="17">
@@ -6557,7 +6558,7 @@
         <v>216</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="17">
@@ -6565,7 +6566,7 @@
         <v>217</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="17">
@@ -6573,7 +6574,7 @@
         <v>218</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="17">
@@ -6581,7 +6582,7 @@
         <v>219</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="17">
@@ -6589,7 +6590,7 @@
         <v>220</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="17">
@@ -6597,7 +6598,7 @@
         <v>221</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="17">
@@ -6605,7 +6606,7 @@
         <v>222</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="17">
@@ -6613,7 +6614,7 @@
         <v>223</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="17">
@@ -6621,7 +6622,7 @@
         <v>224</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="17">
@@ -6629,7 +6630,7 @@
         <v>225</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="17">
@@ -6637,7 +6638,7 @@
         <v>226</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="17">
@@ -6645,7 +6646,7 @@
         <v>227</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="17">
@@ -6653,7 +6654,7 @@
         <v>228</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="17">
@@ -6661,7 +6662,7 @@
         <v>229</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="17">
@@ -6669,7 +6670,7 @@
         <v>230</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="17">
@@ -6677,7 +6678,7 @@
         <v>231</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="17">
@@ -6685,7 +6686,7 @@
         <v>232</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="17">
@@ -6693,7 +6694,7 @@
         <v>233</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="17">
@@ -6701,7 +6702,7 @@
         <v>234</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="17">
@@ -6709,7 +6710,7 @@
         <v>235</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="17">
@@ -6717,7 +6718,7 @@
         <v>236</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="17">
@@ -6725,7 +6726,7 @@
         <v>237</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="17">
@@ -6733,7 +6734,7 @@
         <v>238</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="17">
@@ -6741,7 +6742,7 @@
         <v>239</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="17">
@@ -6749,7 +6750,7 @@
         <v>240</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="17">
@@ -6757,7 +6758,7 @@
         <v>241</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="17">
@@ -6765,7 +6766,7 @@
         <v>242</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="17">
@@ -6773,7 +6774,7 @@
         <v>243</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="17">
@@ -6781,7 +6782,7 @@
         <v>244</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="17">
@@ -6789,7 +6790,7 @@
         <v>245</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="17">
@@ -6797,7 +6798,7 @@
         <v>246</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="17">
@@ -6805,15 +6806,15 @@
         <v>247</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="17">
       <c r="A500" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="17">
@@ -6821,7 +6822,7 @@
         <v>248</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="17">
@@ -6829,7 +6830,7 @@
         <v>249</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="17">
@@ -6837,7 +6838,7 @@
         <v>250</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="17">
@@ -6845,7 +6846,7 @@
         <v>251</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="17">
@@ -6853,7 +6854,7 @@
         <v>252</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="17">
@@ -6861,7 +6862,7 @@
         <v>253</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="17">
@@ -6869,7 +6870,7 @@
         <v>254</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="17">
@@ -6877,7 +6878,7 @@
         <v>255</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="17">
@@ -6885,7 +6886,7 @@
         <v>256</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="17">
@@ -6893,7 +6894,7 @@
         <v>257</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="17">
@@ -6901,7 +6902,7 @@
         <v>258</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="17">
@@ -6909,7 +6910,7 @@
         <v>259</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="17">
@@ -6917,7 +6918,7 @@
         <v>260</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="17">
@@ -6925,7 +6926,7 @@
         <v>261</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="17">
@@ -6933,7 +6934,7 @@
         <v>262</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="17">
@@ -6941,7 +6942,7 @@
         <v>263</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="17">
@@ -6949,7 +6950,7 @@
         <v>264</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="17">
@@ -6957,7 +6958,7 @@
         <v>265</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="17">
@@ -6965,7 +6966,7 @@
         <v>266</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="17">
@@ -6973,7 +6974,7 @@
         <v>267</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="17">
@@ -6981,7 +6982,7 @@
         <v>268</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="17">
@@ -6989,7 +6990,7 @@
         <v>269</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="17">
@@ -6997,7 +6998,7 @@
         <v>270</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="17">
@@ -7005,7 +7006,7 @@
         <v>271</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="17">
@@ -7013,7 +7014,7 @@
         <v>272</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="17">
@@ -7021,7 +7022,7 @@
         <v>273</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="17">
@@ -7029,7 +7030,7 @@
         <v>274</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="17">
@@ -7037,7 +7038,7 @@
         <v>275</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="17">
@@ -7045,7 +7046,7 @@
         <v>276</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="17">
@@ -7053,7 +7054,7 @@
         <v>277</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="17">
@@ -7061,7 +7062,7 @@
         <v>278</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="17">
@@ -7069,7 +7070,7 @@
         <v>279</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="17">
@@ -7077,7 +7078,7 @@
         <v>280</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="17">
@@ -7085,7 +7086,7 @@
         <v>281</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="17">
@@ -7093,7 +7094,7 @@
         <v>282</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="17">
@@ -7101,7 +7102,7 @@
         <v>283</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="17">
@@ -7109,7 +7110,7 @@
         <v>284</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="17">
@@ -7117,7 +7118,7 @@
         <v>285</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="17">
@@ -7125,7 +7126,7 @@
         <v>286</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="17">
@@ -7133,7 +7134,7 @@
         <v>287</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="17">
@@ -7141,7 +7142,7 @@
         <v>288</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="17">
@@ -7149,7 +7150,7 @@
         <v>289</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="17">
@@ -7157,7 +7158,7 @@
         <v>290</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="17">
@@ -7165,7 +7166,7 @@
         <v>291</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="17">
@@ -7173,7 +7174,7 @@
         <v>292</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="17">
@@ -7181,7 +7182,7 @@
         <v>293</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="17">
@@ -7189,7 +7190,7 @@
         <v>294</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="17">
@@ -7197,7 +7198,7 @@
         <v>295</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="17">
@@ -7205,7 +7206,7 @@
         <v>296</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="17">
@@ -7213,7 +7214,7 @@
         <v>297</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="17">
@@ -7221,7 +7222,7 @@
         <v>298</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="17">
@@ -7229,7 +7230,7 @@
         <v>299</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="17">
@@ -7237,7 +7238,7 @@
         <v>300</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="17">
@@ -7245,7 +7246,7 @@
         <v>301</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="17">
@@ -7253,7 +7254,7 @@
         <v>302</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="17">
@@ -7261,7 +7262,7 @@
         <v>303</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="17">
@@ -7269,7 +7270,7 @@
         <v>304</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="17">
@@ -7277,7 +7278,7 @@
         <v>305</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="17">
@@ -7285,7 +7286,7 @@
         <v>306</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="17">
@@ -7293,7 +7294,7 @@
         <v>307</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="17">
@@ -7301,7 +7302,7 @@
         <v>308</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="17">
@@ -7309,7 +7310,7 @@
         <v>309</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="17">
@@ -7317,7 +7318,7 @@
         <v>310</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="17">
@@ -7325,7 +7326,7 @@
         <v>311</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="17">
@@ -7333,7 +7334,7 @@
         <v>312</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="17">
@@ -7341,7 +7342,7 @@
         <v>313</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="17">
@@ -7349,7 +7350,7 @@
         <v>314</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="34">
@@ -7357,7 +7358,7 @@
         <v>315</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="34">
@@ -7365,7 +7366,7 @@
         <v>316</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="17">
@@ -7373,7 +7374,7 @@
         <v>317</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="17">
@@ -7381,7 +7382,7 @@
         <v>318</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="17">
@@ -7389,7 +7390,7 @@
         <v>319</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="51">
@@ -7397,15 +7398,15 @@
         <v>320</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="34">
       <c r="A648" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B648" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="17">
@@ -7413,7 +7414,7 @@
         <v>321</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="17">
@@ -7421,7 +7422,7 @@
         <v>322</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="17">
@@ -7429,7 +7430,7 @@
         <v>323</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="17">
@@ -7437,7 +7438,7 @@
         <v>324</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="17">
@@ -7445,7 +7446,7 @@
         <v>325</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="17">
@@ -7453,7 +7454,7 @@
         <v>326</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="17">
@@ -7461,7 +7462,7 @@
         <v>327</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="17">
@@ -7469,7 +7470,7 @@
         <v>328</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="17">
@@ -7477,7 +7478,7 @@
         <v>329</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="34">
@@ -7485,7 +7486,7 @@
         <v>330</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="17">
@@ -7493,7 +7494,7 @@
         <v>331</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="17">
@@ -7501,7 +7502,7 @@
         <v>332</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="17">
@@ -7509,7 +7510,7 @@
         <v>333</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="17">
@@ -7517,7 +7518,7 @@
         <v>334</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="17">
@@ -7525,7 +7526,7 @@
         <v>335</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="17">
@@ -7533,7 +7534,7 @@
         <v>336</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="17">
@@ -7541,7 +7542,7 @@
         <v>337</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="17">
@@ -7549,7 +7550,7 @@
         <v>338</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="17">
@@ -7557,7 +7558,7 @@
         <v>339</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="17">
@@ -7565,7 +7566,7 @@
         <v>340</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="17">
@@ -7573,7 +7574,7 @@
         <v>341</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="17">
@@ -7581,7 +7582,7 @@
         <v>342</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="17">
@@ -7589,7 +7590,7 @@
         <v>343</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="17">
@@ -7605,7 +7606,7 @@
         <v>345</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="17">
@@ -7613,7 +7614,7 @@
         <v>346</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="17">
@@ -7621,7 +7622,7 @@
         <v>347</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="17">
@@ -7629,7 +7630,7 @@
         <v>348</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="17">
@@ -7637,7 +7638,7 @@
         <v>349</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="17">
@@ -7645,2495 +7646,2495 @@
         <v>350</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="17">
       <c r="A710" s="2" t="s">
-        <v>351</v>
+        <v>1259</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="17">
       <c r="A712" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="17">
       <c r="A714" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="17">
       <c r="A716" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="17">
       <c r="A718" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="17">
       <c r="A720" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="17">
       <c r="A722" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="17">
       <c r="A724" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="17">
       <c r="A726" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="17">
       <c r="A728" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="17">
       <c r="A730" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B730" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B730" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="17">
       <c r="A732" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="17">
       <c r="A734" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="736" spans="1:2" ht="17">
       <c r="A736" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="17">
       <c r="A738" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="17">
       <c r="A740" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="17">
       <c r="A742" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="17">
       <c r="A744" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="17">
       <c r="A746" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="17">
       <c r="A748" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="17">
       <c r="A750" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="17">
       <c r="A752" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="17">
       <c r="A754" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="17">
       <c r="A756" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="17">
       <c r="A758" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="17">
       <c r="A760" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="17">
       <c r="A762" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="17">
       <c r="A764" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="17">
       <c r="A766" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="17">
       <c r="A768" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="17">
       <c r="A770" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="17">
       <c r="A772" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="17">
       <c r="A774" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="17">
       <c r="A776" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="778" spans="1:2" ht="17">
       <c r="A778" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="17">
       <c r="A780" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="34">
       <c r="A782" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="17">
       <c r="A784" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="34">
       <c r="A786" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="17">
       <c r="A788" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="17">
       <c r="A790" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="17">
       <c r="A792" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="17">
       <c r="A794" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="51">
       <c r="A796" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="17">
       <c r="A798" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="17">
       <c r="A800" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="17">
       <c r="A802" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="17">
       <c r="A804" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="17">
       <c r="A806" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="17">
       <c r="A808" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="17">
       <c r="A810" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="51">
       <c r="A812" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="814" spans="1:2" ht="17">
       <c r="A814" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="17">
       <c r="A816" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="17">
       <c r="A818" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="17">
       <c r="A820" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="17">
       <c r="A822" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="17">
       <c r="A824" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="17">
       <c r="A826" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="17">
       <c r="A828" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="17">
       <c r="A830" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="17">
       <c r="A832" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="17">
       <c r="A834" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="17">
       <c r="A836" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="17">
       <c r="A838" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="17">
       <c r="A840" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="17">
       <c r="A842" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="17">
       <c r="A844" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="17">
       <c r="A846" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="17">
       <c r="A848" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="17">
       <c r="A850" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="17">
       <c r="A852" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="854" spans="1:2" ht="17">
       <c r="A854" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="17">
       <c r="A856" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="858" spans="1:2" ht="17">
       <c r="A858" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="860" spans="1:2" ht="17">
       <c r="A860" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="17">
       <c r="A862" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="17">
       <c r="A864" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="17">
       <c r="A866" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="17">
       <c r="A868" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="870" spans="1:2" ht="17">
       <c r="A870" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="872" spans="1:2" ht="17">
       <c r="A872" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="17">
       <c r="A874" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="876" spans="1:2" ht="17">
       <c r="A876" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="17">
       <c r="A878" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="880" spans="1:2" ht="17">
       <c r="A880" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="882" spans="1:2" ht="17">
       <c r="A882" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="884" spans="1:2" ht="17">
       <c r="A884" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="886" spans="1:2" ht="17">
       <c r="A886" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="888" spans="1:2" ht="17">
       <c r="A888" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="17">
       <c r="A890" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="892" spans="1:2" ht="17">
       <c r="A892" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="17">
       <c r="A894" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="896" spans="1:2" ht="17">
       <c r="A896" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="898" spans="1:2" ht="17">
       <c r="A898" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="900" spans="1:2" ht="17">
       <c r="A900" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B900" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="B900" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="902" spans="1:2" ht="17">
       <c r="A902" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="904" spans="1:2" ht="17">
       <c r="A904" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="906" spans="1:2" ht="17">
       <c r="A906" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="908" spans="1:2" ht="17">
       <c r="A908" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="910" spans="1:2" ht="17">
       <c r="A910" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="912" spans="1:2" ht="17">
       <c r="A912" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="914" spans="1:2" ht="17">
       <c r="A914" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="916" spans="1:2" ht="17">
       <c r="A916" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="918" spans="1:2" ht="17">
       <c r="A918" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="920" spans="1:2" ht="17">
       <c r="A920" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="922" spans="1:2" ht="17">
       <c r="A922" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="924" spans="1:2" ht="17">
       <c r="A924" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="926" spans="1:2" ht="17">
       <c r="A926" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="928" spans="1:2" ht="17">
       <c r="A928" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="930" spans="1:2" ht="17">
       <c r="A930" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="932" spans="1:2" ht="17">
       <c r="A932" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="934" spans="1:2" ht="17">
       <c r="A934" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="17">
       <c r="A936" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="938" spans="1:2" ht="17">
       <c r="A938" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="940" spans="1:2" ht="17">
       <c r="A940" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="942" spans="1:2" ht="17">
       <c r="A942" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="944" spans="1:2" ht="17">
       <c r="A944" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="946" spans="1:2" ht="17">
       <c r="A946" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="948" spans="1:2" ht="17">
       <c r="A948" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="950" spans="1:2" ht="17">
       <c r="A950" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="952" spans="1:2" ht="17">
       <c r="A952" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="954" spans="1:2" ht="17">
       <c r="A954" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="956" spans="1:2" ht="17">
       <c r="A956" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="958" spans="1:2" ht="17">
       <c r="A958" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="960" spans="1:2" ht="17">
       <c r="A960" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="962" spans="1:2" ht="17">
       <c r="A962" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B962" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="964" spans="1:2" ht="17">
       <c r="A964" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B964" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="966" spans="1:2" ht="17">
       <c r="A966" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B966" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="968" spans="1:2" ht="17">
       <c r="A968" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B968" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="970" spans="1:2" ht="17">
       <c r="A970" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="972" spans="1:2" ht="17">
       <c r="A972" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B972" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="974" spans="1:2" ht="17">
       <c r="A974" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="976" spans="1:2" ht="17">
       <c r="A976" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="978" spans="1:2" ht="17">
       <c r="A978" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="980" spans="1:2" ht="17">
       <c r="A980" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="982" spans="1:2" ht="17">
       <c r="A982" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B982" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="984" spans="1:2" ht="17">
       <c r="A984" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B984" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="986" spans="1:2" ht="17">
       <c r="A986" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B986" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="988" spans="1:2" ht="17">
       <c r="A988" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B988" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="990" spans="1:2" ht="17">
       <c r="A990" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="992" spans="1:2" ht="17">
       <c r="A992" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="994" spans="1:2" ht="17">
       <c r="A994" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="996" spans="1:2" ht="17">
       <c r="A996" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="998" spans="1:2" ht="51">
       <c r="A998" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1000" spans="1:2" ht="17">
       <c r="A1000" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1002" spans="1:2" ht="17">
       <c r="A1002" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1004" spans="1:2" ht="17">
       <c r="A1004" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1006" spans="1:2" ht="17">
       <c r="A1006" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1008" spans="1:2" ht="17">
       <c r="A1008" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1010" spans="1:2" ht="17">
       <c r="A1010" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1012" spans="1:2" ht="17">
       <c r="A1012" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1014" spans="1:2" ht="17">
       <c r="A1014" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1016" spans="1:2" ht="17">
       <c r="A1016" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1018" spans="1:2" ht="17">
       <c r="A1018" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1020" spans="1:2" ht="17">
       <c r="A1020" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1022" spans="1:2" ht="17">
       <c r="A1022" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1024" spans="1:2" ht="17">
       <c r="A1024" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1026" spans="1:2" ht="17">
       <c r="A1026" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1028" spans="1:2" ht="17">
       <c r="A1028" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B1028" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1030" spans="1:2" ht="17">
       <c r="A1030" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1032" spans="1:2" ht="17">
       <c r="A1032" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1034" spans="1:2" ht="17">
       <c r="A1034" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1036" spans="1:2" ht="17">
       <c r="A1036" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1038" spans="1:2" ht="17">
       <c r="A1038" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1040" spans="1:2" ht="34">
       <c r="A1040" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1040" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1042" spans="1:2" ht="17">
       <c r="A1042" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1042" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1044" spans="1:2" ht="17">
       <c r="A1044" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1044" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1046" spans="1:2" ht="17">
       <c r="A1046" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B1046" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1048" spans="1:2" ht="17">
       <c r="A1048" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1048" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1050" spans="1:2" ht="17">
       <c r="A1050" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1052" spans="1:2" ht="17">
       <c r="A1052" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1052" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1054" spans="1:2" ht="17">
       <c r="A1054" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1054" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1056" spans="1:2" ht="17">
       <c r="A1056" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1056" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1058" spans="1:2" ht="17">
       <c r="A1058" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1058" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1060" spans="1:2" ht="17">
       <c r="A1060" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1060" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1062" spans="1:2" ht="17">
       <c r="A1062" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1062" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1064" spans="1:2" ht="17">
       <c r="A1064" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B1064" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1066" spans="1:2" ht="17">
       <c r="A1066" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1068" spans="1:2" ht="17">
       <c r="A1068" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1068" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1070" spans="1:2" ht="17">
       <c r="A1070" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1072" spans="1:2" ht="17">
       <c r="A1072" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1074" spans="1:2" ht="17">
       <c r="A1074" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B1074" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="17">
       <c r="A1076" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1076" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1078" spans="1:2" ht="17">
       <c r="A1078" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1078" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1080" spans="1:2" ht="17">
       <c r="A1080" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1082" spans="1:2" ht="17">
       <c r="A1082" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B1082" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1084" spans="1:2" ht="17">
       <c r="A1084" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B1084" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1086" spans="1:2" ht="17">
       <c r="A1086" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B1086" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1088" spans="1:2" ht="17">
       <c r="A1088" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1088" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1090" spans="1:2" ht="17">
       <c r="A1090" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1090" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1092" spans="1:2" ht="17">
       <c r="A1092" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1092" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1094" spans="1:2" ht="17">
       <c r="A1094" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1094" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1096" spans="1:2" ht="34">
       <c r="A1096" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1096" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1098" spans="1:2" ht="17">
       <c r="A1098" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1098" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1100" spans="1:2" ht="17">
       <c r="A1100" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1100" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1102" spans="1:2" ht="17">
       <c r="A1102" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1102" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1104" spans="1:2" ht="17">
       <c r="A1104" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1104" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1106" spans="1:2" ht="17">
       <c r="A1106" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B1106" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1108" spans="1:2" ht="17">
       <c r="A1108" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B1108" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1110" spans="1:2" ht="17">
       <c r="A1110" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1110" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1112" spans="1:2" ht="17">
       <c r="A1112" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1112" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1114" spans="1:2" ht="17">
       <c r="A1114" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B1114" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1116" spans="1:2" ht="17">
       <c r="A1116" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B1116" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1118" spans="1:2" ht="17">
       <c r="A1118" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1118" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="1120" spans="1:2" ht="17">
       <c r="A1120" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1120" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1122" spans="1:2" ht="17">
       <c r="A1122" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B1122" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1124" spans="1:2" ht="17">
       <c r="A1124" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B1124" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1126" spans="1:2" ht="17">
       <c r="A1126" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1126" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1128" spans="1:2" ht="17">
       <c r="A1128" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1128" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1130" spans="1:2" ht="17">
       <c r="A1130" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1132" spans="1:2" ht="17">
       <c r="A1132" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B1132" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1134" spans="1:2" ht="17">
       <c r="A1134" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B1134" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1136" spans="1:2" ht="17">
       <c r="A1136" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1136" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="1138" spans="1:2" ht="17">
       <c r="A1138" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B1138" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1140" spans="1:2" ht="34">
       <c r="A1140" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B1140" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1142" spans="1:2" ht="17">
       <c r="A1142" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B1142" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1144" spans="1:2" ht="17">
       <c r="A1144" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1146" spans="1:2" ht="17">
       <c r="A1146" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1146" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1148" spans="1:2" ht="34">
       <c r="A1148" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1148" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1150" spans="1:2" ht="17">
       <c r="A1150" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1150" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1152" spans="1:2" ht="17">
       <c r="A1152" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B1152" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1154" spans="1:2" ht="17">
       <c r="A1154" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B1154" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1156" spans="1:2" ht="17">
       <c r="A1156" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B1156" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1158" spans="1:2" ht="17">
       <c r="A1158" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B1158" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1160" spans="1:2" ht="17">
       <c r="A1160" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B1160" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1162" spans="1:2" ht="17">
       <c r="A1162" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B1162" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1164" spans="1:2" ht="17">
       <c r="A1164" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1164" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1166" spans="1:2" ht="17">
       <c r="A1166" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B1166" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1168" spans="1:2" ht="17">
       <c r="A1168" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1168" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1170" spans="1:2" ht="17">
       <c r="A1170" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1172" spans="1:2" ht="17">
       <c r="A1172" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B1172" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1174" spans="1:2" ht="17">
       <c r="A1174" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B1174" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1176" spans="1:2" ht="17">
       <c r="A1176" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B1176" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1178" spans="1:2" ht="17">
       <c r="A1178" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1178" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="B1178" s="1" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="1180" spans="1:2" ht="17">
       <c r="A1180" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1180" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1182" spans="1:2" ht="17">
       <c r="A1182" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B1182" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1184" spans="1:2" ht="17">
       <c r="A1184" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1184" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1186" spans="1:2" ht="17">
       <c r="A1186" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1186" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1188" spans="1:2" ht="17">
       <c r="A1188" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B1188" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1190" spans="1:2" ht="17">
       <c r="A1190" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1190" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1192" spans="1:2" ht="17">
       <c r="A1192" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B1192" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1194" spans="1:2" ht="17">
       <c r="A1194" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1194" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1196" spans="1:2" ht="17">
       <c r="A1196" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B1196" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1198" spans="1:2" ht="17">
       <c r="A1198" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B1198" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1200" spans="1:2" ht="17">
       <c r="A1200" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B1200" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1202" spans="1:2" ht="17">
       <c r="A1202" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1202" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1204" spans="1:2" ht="17">
       <c r="A1204" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1204" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1206" spans="1:2" ht="17">
       <c r="A1206" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B1206" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1208" spans="1:2" ht="17">
       <c r="A1208" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B1208" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1210" spans="1:2" ht="17">
       <c r="A1210" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B1210" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1212" spans="1:2" ht="17">
       <c r="A1212" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B1212" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1214" spans="1:2" ht="17">
       <c r="A1214" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1214" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1216" spans="1:2" ht="17">
       <c r="A1216" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1218" spans="1:2" ht="17">
       <c r="A1218" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1218" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1220" spans="1:2" ht="17">
       <c r="A1220" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B1220" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1222" spans="1:2" ht="17">
       <c r="A1222" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B1222" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1224" spans="1:2" ht="17">
       <c r="A1224" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1224" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1226" spans="1:2" ht="17">
       <c r="A1226" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1226" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1228" spans="1:2" ht="17">
       <c r="A1228" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B1228" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1230" spans="1:2" ht="17">
       <c r="A1230" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1230" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1232" spans="1:2" ht="17">
       <c r="A1232" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B1232" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1234" spans="1:2" ht="17">
       <c r="A1234" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1236" spans="1:2" ht="34">
       <c r="A1236" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1236" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1238" spans="1:2" ht="17">
       <c r="A1238" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1238" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1240" spans="1:2" ht="17">
       <c r="A1240" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B1240" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1242" spans="1:2" ht="17">
       <c r="A1242" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1244" spans="1:2" ht="17">
       <c r="A1244" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1246" spans="1:2" ht="17">
       <c r="A1246" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1246" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1248" spans="1:2" ht="17">
       <c r="A1248" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1248" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1250" spans="1:2" ht="17">
       <c r="A1250" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1250" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1252" spans="1:2" ht="17">
       <c r="A1252" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1252" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1254" spans="1:2" ht="17">
       <c r="A1254" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1254" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1256" spans="1:2" ht="17">
       <c r="A1256" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1256" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1258" spans="1:2" ht="17">
       <c r="A1258" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1258" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1260" spans="1:2" ht="17">
       <c r="A1260" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B1260" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1262" spans="1:2" ht="17">
       <c r="A1262" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1262" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1264" spans="1:2" ht="17">
       <c r="A1264" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B1264" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1266" spans="1:2" ht="17">
       <c r="A1266" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B1266" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1268" spans="1:2" ht="17">
       <c r="A1268" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B1268" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1270" spans="1:2" ht="17">
       <c r="A1270" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1270" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1272" spans="1:2" ht="17">
       <c r="A1272" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B1272" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1274" spans="1:2" ht="17">
       <c r="A1274" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B1274" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1276" spans="1:2" ht="17">
       <c r="A1276" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B1276" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1278" spans="1:2" ht="17">
       <c r="A1278" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1280" spans="1:2" ht="17">
       <c r="A1280" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B1280" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1282" spans="1:2" ht="34">
       <c r="A1282" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B1282" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1284" spans="1:2" ht="17">
       <c r="A1284" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B1284" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1286" spans="1:2" ht="17">
       <c r="A1286" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1288" spans="1:2" ht="34">
       <c r="A1288" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1290" spans="1:2" ht="17">
       <c r="A1290" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1292" spans="1:2" ht="17">
       <c r="A1292" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1292" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1294" spans="1:2" ht="17">
       <c r="A1294" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B1294" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1296" spans="1:2" ht="17">
       <c r="A1296" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B1296" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1298" spans="1:2" ht="17">
       <c r="A1298" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B1298" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1300" spans="1:2" ht="17">
       <c r="A1300" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1302" spans="1:2" ht="17">
       <c r="A1302" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B1302" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1304" spans="1:2" ht="17">
       <c r="A1304" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1304" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1306" spans="1:2" ht="17">
       <c r="A1306" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1306" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1308" spans="1:2" ht="17">
       <c r="A1308" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1308" s="2" t="s">
         <v>1247</v>
-      </c>
-      <c r="B1308" s="2" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="1310" spans="1:2" ht="17">
       <c r="A1310" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1310" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1312" spans="1:2" ht="17">
       <c r="A1312" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1314" spans="1:2" ht="17">
       <c r="A1314" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1316" spans="1:2" ht="17">
       <c r="A1316" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B1316" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1318" spans="1:2" ht="17">
       <c r="A1318" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1320" spans="1:2" ht="17">
       <c r="A1320" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1322" spans="1:2" ht="17">
       <c r="A1322" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1324" spans="1:2" ht="17">
       <c r="A1324" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B1324" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1326" spans="1:2" ht="17">
       <c r="A1326" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1328" spans="1:2" ht="17">
       <c r="A1328" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1330" spans="1:2" ht="17">
       <c r="A1330" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
